--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>5122.651705337377</v>
+        <v>6607.19418406416</v>
       </c>
       <c r="R2">
-        <v>46103.86534803639</v>
+        <v>59464.74765657743</v>
       </c>
       <c r="S2">
-        <v>0.005581792157248982</v>
+        <v>0.02079092327145235</v>
       </c>
       <c r="T2">
-        <v>0.00558179215724898</v>
+        <v>0.02079092327145235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>5399.4646581781</v>
+        <v>7148.868165116503</v>
       </c>
       <c r="R3">
-        <v>48595.1819236029</v>
+        <v>64339.81348604853</v>
       </c>
       <c r="S3">
-        <v>0.005883415702644699</v>
+        <v>0.02249541414374484</v>
       </c>
       <c r="T3">
-        <v>0.005883415702644697</v>
+        <v>0.02249541414374484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>3488.535271160744</v>
+        <v>3081.783338182935</v>
       </c>
       <c r="R4">
-        <v>31396.8174404467</v>
+        <v>27736.05004364641</v>
       </c>
       <c r="S4">
-        <v>0.003801210766791542</v>
+        <v>0.00969747810317716</v>
       </c>
       <c r="T4">
-        <v>0.003801210766791541</v>
+        <v>0.009697478103177162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>1869.126060463444</v>
+        <v>2420.039488319865</v>
       </c>
       <c r="R5">
-        <v>16822.134544171</v>
+        <v>21780.35539487878</v>
       </c>
       <c r="S5">
-        <v>0.002036654800156361</v>
+        <v>0.007615162187437614</v>
       </c>
       <c r="T5">
-        <v>0.002036654800156361</v>
+        <v>0.007615162187437616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>2720.970340598811</v>
+        <v>2889.49261768164</v>
       </c>
       <c r="R6">
-        <v>24488.7330653893</v>
+        <v>26005.43355913476</v>
       </c>
       <c r="S6">
-        <v>0.002964849414110472</v>
+        <v>0.009092394991589913</v>
       </c>
       <c r="T6">
-        <v>0.002964849414110471</v>
+        <v>0.009092394991589915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>27869.05945154835</v>
+        <v>27149.2582619537</v>
       </c>
       <c r="R7">
-        <v>250821.5350639352</v>
+        <v>244343.3243575832</v>
       </c>
       <c r="S7">
-        <v>0.03036694790599921</v>
+        <v>0.08543083942689852</v>
       </c>
       <c r="T7">
-        <v>0.03036694790599921</v>
+        <v>0.08543083942689854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
-        <v>29375.02102836976</v>
+        <v>29375.02102836975</v>
       </c>
       <c r="R8">
-        <v>264375.1892553278</v>
+        <v>264375.1892553277</v>
       </c>
       <c r="S8">
-        <v>0.03200788798979638</v>
+        <v>0.09243466913249784</v>
       </c>
       <c r="T8">
-        <v>0.03200788798979638</v>
+        <v>0.09243466913249787</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>18978.88095134492</v>
+        <v>12663.18643358671</v>
       </c>
       <c r="R9">
-        <v>170809.9285621043</v>
+        <v>113968.6779022804</v>
       </c>
       <c r="S9">
-        <v>0.02067994760159128</v>
+        <v>0.03984737396515436</v>
       </c>
       <c r="T9">
-        <v>0.02067994760159128</v>
+        <v>0.03984737396515439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>10168.71501281647</v>
+        <v>9944.051172430969</v>
       </c>
       <c r="R10">
-        <v>91518.43511534823</v>
+        <v>89496.46055187871</v>
       </c>
       <c r="S10">
-        <v>0.0110801313407078</v>
+        <v>0.03129104415185149</v>
       </c>
       <c r="T10">
-        <v>0.0110801313407078</v>
+        <v>0.0312910441518515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>14803.0529011056</v>
+        <v>11873.05520891978</v>
       </c>
       <c r="R11">
-        <v>133227.4761099504</v>
+        <v>106857.496880278</v>
       </c>
       <c r="S11">
-        <v>0.01612984238234311</v>
+        <v>0.03736106022761503</v>
       </c>
       <c r="T11">
-        <v>0.01612984238234311</v>
+        <v>0.03736106022761505</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>98878.19381965115</v>
+        <v>39005.89666504355</v>
       </c>
       <c r="R12">
-        <v>889903.7443768604</v>
+        <v>351053.069985392</v>
       </c>
       <c r="S12">
-        <v>0.1077405918911921</v>
+        <v>0.1227402407292779</v>
       </c>
       <c r="T12">
-        <v>0.107740591891192</v>
+        <v>0.1227402407292779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>104221.2790765029</v>
+        <v>42203.69572202149</v>
       </c>
       <c r="R13">
-        <v>937991.5116885266</v>
+        <v>379833.2614981934</v>
       </c>
       <c r="S13">
-        <v>0.1135625749378111</v>
+        <v>0.1328027866419599</v>
       </c>
       <c r="T13">
-        <v>0.113562574937811</v>
+        <v>0.1328027866419599</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>67336.23258616675</v>
+        <v>18193.45989908161</v>
       </c>
       <c r="R14">
-        <v>606026.0932755008</v>
+        <v>163741.1390917345</v>
       </c>
       <c r="S14">
-        <v>0.07337154203877402</v>
+        <v>0.05724954016280775</v>
       </c>
       <c r="T14">
-        <v>0.07337154203877402</v>
+        <v>0.05724954016280777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>36078.1523926959</v>
+        <v>14286.82245095839</v>
       </c>
       <c r="R15">
-        <v>324703.3715342631</v>
+        <v>128581.4020586255</v>
       </c>
       <c r="S15">
-        <v>0.03931181732768627</v>
+        <v>0.04495648547565894</v>
       </c>
       <c r="T15">
-        <v>0.03931181732768627</v>
+        <v>0.04495648547565895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>52520.57883125829</v>
+        <v>17058.26214878533</v>
       </c>
       <c r="R16">
-        <v>472685.2094813246</v>
+        <v>153524.359339068</v>
       </c>
       <c r="S16">
-        <v>0.05722796939503952</v>
+        <v>0.05367740217702549</v>
       </c>
       <c r="T16">
-        <v>0.0572279693950395</v>
+        <v>0.05367740217702551</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>7115.543733005711</v>
+        <v>3855.237357717089</v>
       </c>
       <c r="R17">
-        <v>64039.8935970514</v>
+        <v>34697.1362194538</v>
       </c>
       <c r="S17">
-        <v>0.00775330600010754</v>
+        <v>0.01213131351441969</v>
       </c>
       <c r="T17">
-        <v>0.007753306000107539</v>
+        <v>0.01213131351441969</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>7500.046678960121</v>
+        <v>4171.299169929759</v>
       </c>
       <c r="R18">
-        <v>67500.42011064109</v>
+        <v>37541.69252936784</v>
       </c>
       <c r="S18">
-        <v>0.008172271733407597</v>
+        <v>0.01312586834415344</v>
       </c>
       <c r="T18">
-        <v>0.008172271733407595</v>
+        <v>0.01312586834415344</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>4845.698422208538</v>
+        <v>1798.192382843633</v>
       </c>
       <c r="R19">
-        <v>43611.28579987685</v>
+        <v>16183.7314455927</v>
       </c>
       <c r="S19">
-        <v>0.005280015703838687</v>
+        <v>0.005658389751762289</v>
       </c>
       <c r="T19">
-        <v>0.005280015703838687</v>
+        <v>0.00565838975176229</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>2596.28196308388</v>
+        <v>1412.070900689407</v>
       </c>
       <c r="R20">
-        <v>23366.53766775492</v>
+        <v>12708.63810620466</v>
       </c>
       <c r="S20">
-        <v>0.002828985285970005</v>
+        <v>0.004443377465867891</v>
       </c>
       <c r="T20">
-        <v>0.002828985285970004</v>
+        <v>0.004443377465867891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>3779.523685861668</v>
+        <v>1685.992506683352</v>
       </c>
       <c r="R21">
-        <v>34015.71317275501</v>
+        <v>15173.93256015017</v>
       </c>
       <c r="S21">
-        <v>0.004118280312889242</v>
+        <v>0.005305329292007501</v>
       </c>
       <c r="T21">
-        <v>0.004118280312889241</v>
+        <v>0.005305329292007503</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>113761.3051406783</v>
+        <v>18188.90002062419</v>
       </c>
       <c r="R22">
-        <v>1023851.746266104</v>
+        <v>163700.1001856177</v>
       </c>
       <c r="S22">
-        <v>0.1239576682855556</v>
+        <v>0.05723519154817735</v>
       </c>
       <c r="T22">
-        <v>0.1239576682855555</v>
+        <v>0.05723519154817735</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>119908.6297308304</v>
+        <v>19680.07064625793</v>
       </c>
       <c r="R23">
-        <v>1079177.667577474</v>
+        <v>177120.6358163213</v>
       </c>
       <c r="S23">
-        <v>0.1306559741941193</v>
+        <v>0.0619274729006719</v>
       </c>
       <c r="T23">
-        <v>0.1306559741941193</v>
+        <v>0.0619274729006719</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>77471.65887991969</v>
+        <v>8483.820432980714</v>
       </c>
       <c r="R24">
-        <v>697244.9299192773</v>
+        <v>76354.38389682643</v>
       </c>
       <c r="S24">
-        <v>0.08441540101085679</v>
+        <v>0.02669612164514655</v>
       </c>
       <c r="T24">
-        <v>0.08441540101085679</v>
+        <v>0.02669612164514656</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>41508.62333451804</v>
+        <v>6662.110280514967</v>
       </c>
       <c r="R25">
-        <v>373577.6100106624</v>
+        <v>59958.9925246347</v>
       </c>
       <c r="S25">
-        <v>0.04522901839010654</v>
+        <v>0.0209637282951688</v>
       </c>
       <c r="T25">
-        <v>0.04522901839010653</v>
+        <v>0.0209637282951688</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>60425.95807813372</v>
+        <v>7954.464613754518</v>
       </c>
       <c r="R26">
-        <v>543833.6227032035</v>
+        <v>71590.18152379066</v>
       </c>
       <c r="S26">
-        <v>0.06584190343125602</v>
+        <v>0.02503039245447536</v>
       </c>
       <c r="T26">
-        <v>0.06584190343125601</v>
+        <v>0.02503039245447537</v>
       </c>
     </row>
   </sheetData>
